--- a/id.xlsx
+++ b/id.xlsx
@@ -5,24 +5,24 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\HeadOffice\Kassa_ve_Inkassasiya_Proseslerinin_Idare_Edilmesi_Dep\Tehlil_ve_koordinasiya_shobesi\texniki_id\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\HEAD-OFFICE\Private\Tehlil_ve_koordinasiya_shob\Tehlil_ve_koordinasiya_shobesi\texniki_id\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10980" windowHeight="5400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10365"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$603</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$605</definedName>
   </definedNames>
   <calcPr calcId="162913" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="612">
   <si>
     <t>ATM_ID</t>
   </si>
@@ -1086,9 +1086,6 @@
     <t>A0100024</t>
   </si>
   <si>
-    <t>-1001788196806</t>
-  </si>
-  <si>
     <t>A0100030</t>
   </si>
   <si>
@@ -1830,74 +1827,44 @@
     <t>A0100518</t>
   </si>
   <si>
-    <t>ADM271011</t>
-  </si>
-  <si>
-    <t>ADM284011</t>
-  </si>
-  <si>
-    <t>K0255011</t>
-  </si>
-  <si>
-    <t>ADM000009</t>
-  </si>
-  <si>
-    <t>K0241012</t>
-  </si>
-  <si>
-    <t>K0107013</t>
-  </si>
-  <si>
-    <t>N0014012</t>
-  </si>
-  <si>
-    <t>N0039011</t>
-  </si>
-  <si>
-    <t>K0256011</t>
-  </si>
-  <si>
-    <t>K0220011</t>
-  </si>
-  <si>
-    <t>K0108003</t>
-  </si>
-  <si>
-    <t>K0234011</t>
-  </si>
-  <si>
-    <t>K0142011</t>
-  </si>
-  <si>
-    <t>K0240011</t>
-  </si>
-  <si>
-    <t>N0021011</t>
-  </si>
-  <si>
-    <t>K0213011</t>
-  </si>
-  <si>
-    <t>K0117011</t>
-  </si>
-  <si>
-    <t>N0039012</t>
-  </si>
-  <si>
-    <t>K0103014</t>
-  </si>
-  <si>
-    <t>K0113012</t>
+    <t>A0100527</t>
+  </si>
+  <si>
+    <t>A0100528</t>
+  </si>
+  <si>
+    <t>A0100529</t>
+  </si>
+  <si>
+    <t>A0100530</t>
+  </si>
+  <si>
+    <t>A0100531</t>
+  </si>
+  <si>
+    <t>A0100532</t>
+  </si>
+  <si>
+    <t>A0100533</t>
+  </si>
+  <si>
+    <t>A0100534</t>
+  </si>
+  <si>
+    <t>A0100535</t>
+  </si>
+  <si>
+    <t>A0100464</t>
+  </si>
+  <si>
+    <t>A0100536</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="00000"/>
-  </numFmts>
-  <fonts count="3">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1912,11 +1879,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1939,7 +1901,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1953,9 +1915,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2261,19 +2220,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F613"/>
+  <dimension ref="A1:F605"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A596" workbookViewId="0">
-      <selection activeCell="I611" sqref="I611"/>
+    <sheetView tabSelected="1" topLeftCell="A566" workbookViewId="0">
+      <selection activeCell="F584" sqref="F584"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2281,7 +2240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>268</v>
       </c>
@@ -2289,31 +2248,31 @@
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>131</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>133</v>
       </c>
@@ -2321,15 +2280,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>134</v>
       </c>
@@ -2337,7 +2296,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>135</v>
       </c>
@@ -2345,7 +2304,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -2353,7 +2312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>136</v>
       </c>
@@ -2361,23 +2320,23 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>481</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>482</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>483</v>
-      </c>
       <c r="B13" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>137</v>
       </c>
@@ -2385,7 +2344,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -2393,23 +2352,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>483</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>484</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>485</v>
-      </c>
       <c r="B17" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>270</v>
       </c>
@@ -2417,15 +2376,15 @@
         <v>269</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -2433,15 +2392,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -2449,23 +2408,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>353</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>271</v>
       </c>
@@ -2473,15 +2432,15 @@
         <v>269</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -2489,15 +2448,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>272</v>
       </c>
@@ -2505,15 +2464,15 @@
         <v>269</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>138</v>
       </c>
@@ -2521,7 +2480,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>273</v>
       </c>
@@ -2529,7 +2488,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>274</v>
       </c>
@@ -2537,7 +2496,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>275</v>
       </c>
@@ -2545,23 +2504,23 @@
         <v>269</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>490</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>491</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>492</v>
-      </c>
       <c r="B36" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -2569,7 +2528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>276</v>
       </c>
@@ -2577,7 +2536,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>249</v>
       </c>
@@ -2585,7 +2544,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -2593,7 +2552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>277</v>
       </c>
@@ -2601,15 +2560,15 @@
         <v>269</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -2617,7 +2576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>139</v>
       </c>
@@ -2625,23 +2584,23 @@
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -2649,7 +2608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -2657,7 +2616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -2665,7 +2624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>14</v>
       </c>
@@ -2673,7 +2632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>278</v>
       </c>
@@ -2681,7 +2640,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -2689,7 +2648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>16</v>
       </c>
@@ -2697,7 +2656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>279</v>
       </c>
@@ -2705,7 +2664,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -2713,23 +2672,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>391</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>392</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" t="s">
-        <v>393</v>
-      </c>
       <c r="B57" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>251</v>
       </c>
@@ -2737,7 +2696,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>252</v>
       </c>
@@ -2745,23 +2704,23 @@
         <v>250</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>494</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>495</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" t="s">
-        <v>496</v>
-      </c>
       <c r="B61" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>140</v>
       </c>
@@ -2769,49 +2728,49 @@
         <v>132</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>355</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>356</v>
       </c>
-      <c r="B64" s="5" t="s">
-        <v>584</v>
-      </c>
-      <c r="F64" s="2"/>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" t="s">
+      <c r="B65" s="5" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>357</v>
       </c>
-      <c r="B65" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" t="s">
+      <c r="B66" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="F66" s="2"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>358</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>584</v>
-      </c>
-      <c r="F66" s="2"/>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" t="s">
-        <v>359</v>
-      </c>
       <c r="B67" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>280</v>
       </c>
@@ -2819,40 +2778,40 @@
         <v>269</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>394</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>395</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" t="s">
-        <v>396</v>
-      </c>
       <c r="B70" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>253</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E72" s="2"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>141</v>
       </c>
@@ -2860,7 +2819,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>281</v>
       </c>
@@ -2868,7 +2827,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>142</v>
       </c>
@@ -2876,7 +2835,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>18</v>
       </c>
@@ -2884,15 +2843,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>19</v>
       </c>
@@ -2900,7 +2859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>282</v>
       </c>
@@ -2908,7 +2867,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>283</v>
       </c>
@@ -2916,7 +2875,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>143</v>
       </c>
@@ -2924,7 +2883,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>144</v>
       </c>
@@ -2932,7 +2891,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>20</v>
       </c>
@@ -2940,15 +2899,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>284</v>
       </c>
@@ -2956,7 +2915,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>21</v>
       </c>
@@ -2964,7 +2923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>22</v>
       </c>
@@ -2972,7 +2931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>23</v>
       </c>
@@ -2980,7 +2939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>24</v>
       </c>
@@ -2988,7 +2947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>25</v>
       </c>
@@ -2996,7 +2955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>254</v>
       </c>
@@ -3004,7 +2963,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>145</v>
       </c>
@@ -3012,7 +2971,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>146</v>
       </c>
@@ -3020,7 +2979,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>26</v>
       </c>
@@ -3028,7 +2987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>27</v>
       </c>
@@ -3036,7 +2995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>285</v>
       </c>
@@ -3044,7 +3003,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>147</v>
       </c>
@@ -3052,47 +3011,47 @@
         <v>132</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>498</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>499</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
-        <v>500</v>
-      </c>
       <c r="B99" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>359</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>360</v>
       </c>
-      <c r="B100" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
-        <v>361</v>
-      </c>
       <c r="B101" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>148</v>
       </c>
@@ -3100,7 +3059,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>149</v>
       </c>
@@ -3108,15 +3067,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>150</v>
       </c>
@@ -3124,15 +3083,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>255</v>
       </c>
@@ -3140,15 +3099,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>286</v>
       </c>
@@ -3156,7 +3115,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>287</v>
       </c>
@@ -3164,7 +3123,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>288</v>
       </c>
@@ -3172,7 +3131,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>151</v>
       </c>
@@ -3180,31 +3139,31 @@
         <v>132</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>501</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>502</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" t="s">
+      <c r="B115" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>503</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" t="s">
-        <v>504</v>
-      </c>
       <c r="B116" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>289</v>
       </c>
@@ -3212,7 +3171,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>152</v>
       </c>
@@ -3220,7 +3179,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>28</v>
       </c>
@@ -3228,7 +3187,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>290</v>
       </c>
@@ -3236,15 +3195,15 @@
         <v>269</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>29</v>
       </c>
@@ -3252,7 +3211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>30</v>
       </c>
@@ -3260,7 +3219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>31</v>
       </c>
@@ -3268,15 +3227,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>291</v>
       </c>
@@ -3284,7 +3243,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>292</v>
       </c>
@@ -3292,47 +3251,47 @@
         <v>269</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>504</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>505</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" t="s">
+      <c r="B129" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>506</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" t="s">
-        <v>507</v>
-      </c>
       <c r="B130" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>32</v>
       </c>
@@ -3340,15 +3299,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>293</v>
       </c>
@@ -3356,7 +3315,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>153</v>
       </c>
@@ -3364,15 +3323,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>294</v>
       </c>
@@ -3380,31 +3339,31 @@
         <v>269</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
+        <v>403</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>404</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" t="s">
+      <c r="B140" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>405</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" t="s">
-        <v>406</v>
-      </c>
       <c r="B141" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>33</v>
       </c>
@@ -3412,7 +3371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>34</v>
       </c>
@@ -3420,7 +3379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>154</v>
       </c>
@@ -3428,7 +3387,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>155</v>
       </c>
@@ -3436,15 +3395,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>35</v>
       </c>
@@ -3452,7 +3411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>36</v>
       </c>
@@ -3460,7 +3419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>156</v>
       </c>
@@ -3468,7 +3427,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>37</v>
       </c>
@@ -3476,7 +3435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>38</v>
       </c>
@@ -3484,7 +3443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>39</v>
       </c>
@@ -3492,15 +3451,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>295</v>
       </c>
@@ -3508,7 +3467,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>40</v>
       </c>
@@ -3516,7 +3475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>296</v>
       </c>
@@ -3524,7 +3483,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>41</v>
       </c>
@@ -3532,15 +3491,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>42</v>
       </c>
@@ -3548,7 +3507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>157</v>
       </c>
@@ -3556,7 +3515,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>43</v>
       </c>
@@ -3564,7 +3523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>158</v>
       </c>
@@ -3572,7 +3531,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>297</v>
       </c>
@@ -3580,31 +3539,31 @@
         <v>269</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>408</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
         <v>409</v>
       </c>
-      <c r="B164" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" t="s">
-        <v>410</v>
-      </c>
       <c r="B165" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>159</v>
       </c>
@@ -3612,15 +3571,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>44</v>
       </c>
@@ -3628,7 +3587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>45</v>
       </c>
@@ -3636,7 +3595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>46</v>
       </c>
@@ -3644,15 +3603,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>160</v>
       </c>
@@ -3660,7 +3619,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>161</v>
       </c>
@@ -3668,7 +3627,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>256</v>
       </c>
@@ -3676,55 +3635,55 @@
         <v>250</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
+        <v>410</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
         <v>411</v>
       </c>
-      <c r="B176" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2">
-      <c r="A177" t="s">
+      <c r="B177" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>412</v>
       </c>
-      <c r="B177" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2">
-      <c r="A178" t="s">
+      <c r="B178" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
         <v>413</v>
       </c>
-      <c r="B178" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2">
-      <c r="A179" t="s">
+      <c r="B179" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
         <v>414</v>
       </c>
-      <c r="B179" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2">
-      <c r="A180" t="s">
+      <c r="B180" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
         <v>415</v>
       </c>
-      <c r="B180" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2">
-      <c r="A181" t="s">
-        <v>416</v>
-      </c>
       <c r="B181" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>47</v>
       </c>
@@ -3732,31 +3691,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
+        <v>416</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
         <v>417</v>
       </c>
-      <c r="B183" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2">
-      <c r="A184" t="s">
+      <c r="B184" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
         <v>418</v>
       </c>
-      <c r="B184" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2">
-      <c r="A185" t="s">
-        <v>419</v>
-      </c>
       <c r="B185" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>48</v>
       </c>
@@ -3764,7 +3723,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>257</v>
       </c>
@@ -3772,143 +3731,143 @@
         <v>250</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
+        <v>419</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>365</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
         <v>420</v>
       </c>
-      <c r="B188" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2">
-      <c r="A189" t="s">
-        <v>366</v>
-      </c>
-      <c r="B189" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2">
-      <c r="A190" t="s">
+      <c r="B190" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
         <v>421</v>
       </c>
-      <c r="B190" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2">
-      <c r="A191" t="s">
+      <c r="B191" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
         <v>422</v>
       </c>
-      <c r="B191" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2">
-      <c r="A192" t="s">
+      <c r="B192" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
         <v>423</v>
       </c>
-      <c r="B192" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2">
-      <c r="A193" t="s">
+      <c r="B193" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
         <v>424</v>
       </c>
-      <c r="B193" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2">
-      <c r="A194" t="s">
+      <c r="B194" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
         <v>425</v>
       </c>
-      <c r="B194" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2">
-      <c r="A195" t="s">
+      <c r="B195" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
         <v>426</v>
       </c>
-      <c r="B195" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2">
-      <c r="A196" t="s">
+      <c r="B196" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
         <v>427</v>
       </c>
-      <c r="B196" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2">
-      <c r="A197" t="s">
+      <c r="B197" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
         <v>428</v>
       </c>
-      <c r="B197" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2">
-      <c r="A198" t="s">
+      <c r="B198" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
         <v>429</v>
       </c>
-      <c r="B198" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2">
-      <c r="A199" t="s">
+      <c r="B199" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
         <v>430</v>
       </c>
-      <c r="B199" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2">
-      <c r="A200" t="s">
+      <c r="B200" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
         <v>431</v>
       </c>
-      <c r="B200" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2">
-      <c r="A201" t="s">
+      <c r="B201" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>510</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
         <v>432</v>
       </c>
-      <c r="B201" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2">
-      <c r="A202" t="s">
-        <v>511</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2">
-      <c r="A203" t="s">
+      <c r="B203" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
         <v>433</v>
       </c>
-      <c r="B203" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2">
-      <c r="A204" t="s">
-        <v>434</v>
-      </c>
       <c r="B204" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>162</v>
       </c>
@@ -3916,7 +3875,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>49</v>
       </c>
@@ -3924,7 +3883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>50</v>
       </c>
@@ -3932,15 +3891,15 @@
         <v>269</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>51</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>163</v>
       </c>
@@ -3948,7 +3907,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>298</v>
       </c>
@@ -3956,7 +3915,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>52</v>
       </c>
@@ -3964,15 +3923,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>299</v>
       </c>
@@ -3980,7 +3939,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>300</v>
       </c>
@@ -3988,31 +3947,31 @@
         <v>269</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
+        <v>512</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
         <v>513</v>
       </c>
-      <c r="B216" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2">
-      <c r="A217" t="s">
-        <v>514</v>
-      </c>
       <c r="B217" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>53</v>
       </c>
@@ -4020,7 +3979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>164</v>
       </c>
@@ -4028,23 +3987,23 @@
         <v>132</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
+        <v>435</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
         <v>436</v>
       </c>
-      <c r="B220" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2">
-      <c r="A221" t="s">
-        <v>437</v>
-      </c>
       <c r="B221" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>301</v>
       </c>
@@ -4052,7 +4011,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>165</v>
       </c>
@@ -4060,7 +4019,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>166</v>
       </c>
@@ -4068,7 +4027,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>54</v>
       </c>
@@ -4076,7 +4035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>167</v>
       </c>
@@ -4084,7 +4043,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>168</v>
       </c>
@@ -4092,31 +4051,31 @@
         <v>132</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
+        <v>514</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>437</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
         <v>515</v>
       </c>
-      <c r="B228" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2">
-      <c r="A229" t="s">
-        <v>438</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2">
-      <c r="A230" t="s">
-        <v>516</v>
-      </c>
       <c r="B230" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>169</v>
       </c>
@@ -4124,7 +4083,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>55</v>
       </c>
@@ -4132,7 +4091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>258</v>
       </c>
@@ -4140,7 +4099,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>170</v>
       </c>
@@ -4148,7 +4107,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>171</v>
       </c>
@@ -4156,7 +4115,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>302</v>
       </c>
@@ -4164,7 +4123,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>56</v>
       </c>
@@ -4172,7 +4131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>57</v>
       </c>
@@ -4180,23 +4139,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>172</v>
       </c>
@@ -4204,7 +4163,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>58</v>
       </c>
@@ -4212,15 +4171,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>303</v>
       </c>
@@ -4228,7 +4187,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>59</v>
       </c>
@@ -4236,7 +4195,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>173</v>
       </c>
@@ -4244,7 +4203,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>174</v>
       </c>
@@ -4252,7 +4211,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>175</v>
       </c>
@@ -4260,31 +4219,31 @@
         <v>132</v>
       </c>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
+        <v>517</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
         <v>518</v>
       </c>
-      <c r="B249" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2">
-      <c r="A250" t="s">
+      <c r="B250" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
         <v>519</v>
       </c>
-      <c r="B250" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2">
-      <c r="A251" t="s">
-        <v>520</v>
-      </c>
       <c r="B251" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>176</v>
       </c>
@@ -4292,7 +4251,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="253" spans="1:2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>177</v>
       </c>
@@ -4300,7 +4259,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>178</v>
       </c>
@@ -4308,7 +4267,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>179</v>
       </c>
@@ -4316,15 +4275,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>304</v>
       </c>
@@ -4332,7 +4291,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>180</v>
       </c>
@@ -4340,7 +4299,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>60</v>
       </c>
@@ -4348,7 +4307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>61</v>
       </c>
@@ -4356,7 +4315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>62</v>
       </c>
@@ -4364,15 +4323,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>259</v>
       </c>
@@ -4380,7 +4339,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>181</v>
       </c>
@@ -4388,7 +4347,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>182</v>
       </c>
@@ -4396,7 +4355,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="266" spans="1:2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>183</v>
       </c>
@@ -4404,7 +4363,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="267" spans="1:2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>184</v>
       </c>
@@ -4412,7 +4371,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="268" spans="1:2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>63</v>
       </c>
@@ -4420,7 +4379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>64</v>
       </c>
@@ -4428,15 +4387,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>65</v>
       </c>
@@ -4444,7 +4403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>66</v>
       </c>
@@ -4452,7 +4411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>67</v>
       </c>
@@ -4460,7 +4419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>185</v>
       </c>
@@ -4468,7 +4427,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="275" spans="1:2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>68</v>
       </c>
@@ -4476,7 +4435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>186</v>
       </c>
@@ -4484,7 +4443,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="277" spans="1:2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>187</v>
       </c>
@@ -4492,15 +4451,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="278" spans="1:2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>188</v>
       </c>
@@ -4508,7 +4467,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="280" spans="1:2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>69</v>
       </c>
@@ -4516,7 +4475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="281" spans="1:2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>305</v>
       </c>
@@ -4524,7 +4483,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="282" spans="1:2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>70</v>
       </c>
@@ -4532,7 +4491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>189</v>
       </c>
@@ -4540,15 +4499,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="284" spans="1:2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>190</v>
       </c>
@@ -4556,31 +4515,31 @@
         <v>132</v>
       </c>
     </row>
-    <row r="286" spans="1:2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
+        <v>524</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
         <v>525</v>
       </c>
-      <c r="B286" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2">
-      <c r="A287" t="s">
-        <v>526</v>
-      </c>
       <c r="B287" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="288" spans="1:2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>191</v>
       </c>
@@ -4588,7 +4547,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="290" spans="1:2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>192</v>
       </c>
@@ -4596,7 +4555,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="291" spans="1:2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>193</v>
       </c>
@@ -4604,15 +4563,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="292" spans="1:2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>194</v>
       </c>
@@ -4620,7 +4579,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="294" spans="1:2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>71</v>
       </c>
@@ -4628,23 +4587,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>195</v>
       </c>
@@ -4652,15 +4611,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="298" spans="1:2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>72</v>
       </c>
@@ -4668,15 +4627,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>196</v>
       </c>
@@ -4684,39 +4643,39 @@
         <v>132</v>
       </c>
     </row>
-    <row r="302" spans="1:2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
+        <v>530</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>368</v>
+      </c>
+      <c r="B303" s="5" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>369</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
         <v>531</v>
       </c>
-      <c r="B302" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2">
-      <c r="A303" t="s">
-        <v>369</v>
-      </c>
-      <c r="B303" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2">
-      <c r="A304" t="s">
-        <v>370</v>
-      </c>
-      <c r="B304" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2">
-      <c r="A305" t="s">
-        <v>532</v>
-      </c>
       <c r="B305" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>306</v>
       </c>
@@ -4724,7 +4683,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="307" spans="1:2">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>197</v>
       </c>
@@ -4732,7 +4691,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="308" spans="1:2">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>73</v>
       </c>
@@ -4740,7 +4699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:2">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>260</v>
       </c>
@@ -4748,15 +4707,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="310" spans="1:2">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>74</v>
       </c>
@@ -4764,7 +4723,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:2">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>198</v>
       </c>
@@ -4772,7 +4731,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="313" spans="1:2">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>199</v>
       </c>
@@ -4780,7 +4739,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="314" spans="1:2">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>200</v>
       </c>
@@ -4788,7 +4747,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="315" spans="1:2">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>75</v>
       </c>
@@ -4796,7 +4755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="316" spans="1:2">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>76</v>
       </c>
@@ -4804,7 +4763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:2">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>77</v>
       </c>
@@ -4812,7 +4771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="318" spans="1:2">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>307</v>
       </c>
@@ -4820,7 +4779,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="319" spans="1:2">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>201</v>
       </c>
@@ -4828,7 +4787,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="320" spans="1:2">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>202</v>
       </c>
@@ -4836,7 +4795,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="321" spans="1:2">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>203</v>
       </c>
@@ -4844,15 +4803,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="322" spans="1:2">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>204</v>
       </c>
@@ -4860,7 +4819,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="324" spans="1:2">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>205</v>
       </c>
@@ -4868,7 +4827,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="325" spans="1:2">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>308</v>
       </c>
@@ -4876,7 +4835,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="326" spans="1:2">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>206</v>
       </c>
@@ -4884,15 +4843,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="327" spans="1:2">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>78</v>
       </c>
@@ -4900,31 +4859,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:2">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
+        <v>534</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>442</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
         <v>535</v>
       </c>
-      <c r="B329" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2">
-      <c r="A330" t="s">
-        <v>443</v>
-      </c>
-      <c r="B330" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2">
-      <c r="A331" t="s">
-        <v>536</v>
-      </c>
       <c r="B331" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>79</v>
       </c>
@@ -4932,39 +4891,39 @@
         <v>3</v>
       </c>
     </row>
-    <row r="333" spans="1:2">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
+        <v>536</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>443</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>444</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
         <v>537</v>
       </c>
-      <c r="B333" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2">
-      <c r="A334" t="s">
-        <v>444</v>
-      </c>
-      <c r="B334" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2">
-      <c r="A335" t="s">
-        <v>445</v>
-      </c>
-      <c r="B335" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2">
-      <c r="A336" t="s">
-        <v>538</v>
-      </c>
       <c r="B336" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>80</v>
       </c>
@@ -4972,15 +4931,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="338" spans="1:2">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>309</v>
       </c>
@@ -4988,7 +4947,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="340" spans="1:2">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>261</v>
       </c>
@@ -4996,7 +4955,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="341" spans="1:2">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>262</v>
       </c>
@@ -5004,15 +4963,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="342" spans="1:2">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>81</v>
       </c>
@@ -5020,7 +4979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="344" spans="1:2">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>310</v>
       </c>
@@ -5028,7 +4987,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="345" spans="1:2">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>311</v>
       </c>
@@ -5036,7 +4995,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="346" spans="1:2">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>82</v>
       </c>
@@ -5044,7 +5003,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="347" spans="1:2">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>207</v>
       </c>
@@ -5052,23 +5011,23 @@
         <v>132</v>
       </c>
     </row>
-    <row r="348" spans="1:2">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
+        <v>445</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
         <v>446</v>
       </c>
-      <c r="B348" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2">
-      <c r="A349" t="s">
-        <v>447</v>
-      </c>
       <c r="B349" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>83</v>
       </c>
@@ -5076,7 +5035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="351" spans="1:2">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>208</v>
       </c>
@@ -5084,7 +5043,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="352" spans="1:2">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>312</v>
       </c>
@@ -5092,7 +5051,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="353" spans="1:2">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>209</v>
       </c>
@@ -5100,15 +5059,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="354" spans="1:2">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>210</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>313</v>
       </c>
@@ -5116,55 +5075,55 @@
         <v>269</v>
       </c>
     </row>
-    <row r="356" spans="1:2">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
+        <v>370</v>
+      </c>
+      <c r="B356" s="5" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>540</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
         <v>371</v>
       </c>
-      <c r="B356" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2">
-      <c r="A357" t="s">
+      <c r="B358" s="5" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
         <v>541</v>
       </c>
-      <c r="B357" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2">
-      <c r="A358" t="s">
-        <v>372</v>
-      </c>
-      <c r="B358" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2">
-      <c r="A359" t="s">
-        <v>542</v>
-      </c>
       <c r="B359" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
+        <v>447</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
         <v>448</v>
       </c>
-      <c r="B360" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2">
-      <c r="A361" t="s">
-        <v>449</v>
-      </c>
       <c r="B361" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>211</v>
       </c>
@@ -5172,31 +5131,31 @@
         <v>132</v>
       </c>
     </row>
-    <row r="363" spans="1:2">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
+        <v>542</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
         <v>543</v>
       </c>
-      <c r="B364" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2">
-      <c r="A365" t="s">
-        <v>544</v>
-      </c>
       <c r="B365" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>212</v>
       </c>
@@ -5204,15 +5163,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="367" spans="1:2">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>213</v>
       </c>
@@ -5220,7 +5179,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="369" spans="1:2">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>84</v>
       </c>
@@ -5228,15 +5187,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="370" spans="1:2">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>85</v>
       </c>
@@ -5244,15 +5203,15 @@
         <v>269</v>
       </c>
     </row>
-    <row r="372" spans="1:2">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>263</v>
       </c>
@@ -5260,15 +5219,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="374" spans="1:2">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>214</v>
       </c>
@@ -5276,7 +5235,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="376" spans="1:2">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>86</v>
       </c>
@@ -5284,15 +5243,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="377" spans="1:2">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>87</v>
       </c>
@@ -5300,39 +5259,39 @@
         <v>3</v>
       </c>
     </row>
-    <row r="379" spans="1:2">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
+        <v>545</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>454</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>372</v>
+      </c>
+      <c r="B381" s="5" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
         <v>546</v>
       </c>
-      <c r="B379" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2">
-      <c r="A380" t="s">
-        <v>455</v>
-      </c>
-      <c r="B380" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2">
-      <c r="A381" t="s">
-        <v>373</v>
-      </c>
-      <c r="B381" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2">
-      <c r="A382" t="s">
-        <v>547</v>
-      </c>
       <c r="B382" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>215</v>
       </c>
@@ -5340,7 +5299,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="384" spans="1:2">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>216</v>
       </c>
@@ -5348,7 +5307,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="385" spans="1:2">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>314</v>
       </c>
@@ -5356,31 +5315,31 @@
         <v>269</v>
       </c>
     </row>
-    <row r="386" spans="1:2">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
+        <v>373</v>
+      </c>
+      <c r="B387" s="5" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
         <v>374</v>
       </c>
-      <c r="B387" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2">
-      <c r="A388" t="s">
-        <v>375</v>
-      </c>
       <c r="B388" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>315</v>
       </c>
@@ -5388,7 +5347,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="390" spans="1:2">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>316</v>
       </c>
@@ -5396,23 +5355,23 @@
         <v>269</v>
       </c>
     </row>
-    <row r="391" spans="1:2">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
+        <v>547</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
         <v>548</v>
       </c>
-      <c r="B391" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2">
-      <c r="A392" t="s">
-        <v>549</v>
-      </c>
       <c r="B392" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>317</v>
       </c>
@@ -5420,7 +5379,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="394" spans="1:2">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>217</v>
       </c>
@@ -5428,7 +5387,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="395" spans="1:2">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>318</v>
       </c>
@@ -5436,7 +5395,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="396" spans="1:2">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>264</v>
       </c>
@@ -5444,7 +5403,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="397" spans="1:2">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>218</v>
       </c>
@@ -5452,7 +5411,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="398" spans="1:2">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>319</v>
       </c>
@@ -5460,15 +5419,15 @@
         <v>269</v>
       </c>
     </row>
-    <row r="399" spans="1:2">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>320</v>
       </c>
@@ -5476,15 +5435,15 @@
         <v>269</v>
       </c>
     </row>
-    <row r="401" spans="1:2">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>376</v>
-      </c>
-      <c r="B401" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2">
+        <v>375</v>
+      </c>
+      <c r="B401" s="5" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>321</v>
       </c>
@@ -5492,15 +5451,15 @@
         <v>269</v>
       </c>
     </row>
-    <row r="403" spans="1:2">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>219</v>
       </c>
@@ -5508,7 +5467,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="405" spans="1:2">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>88</v>
       </c>
@@ -5516,7 +5475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="406" spans="1:2">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>89</v>
       </c>
@@ -5524,7 +5483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="407" spans="1:2">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>90</v>
       </c>
@@ -5532,15 +5491,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="408" spans="1:2">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>91</v>
       </c>
@@ -5548,23 +5507,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="410" spans="1:2">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>92</v>
       </c>
@@ -5572,15 +5531,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="413" spans="1:2">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>93</v>
       </c>
@@ -5588,7 +5547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="415" spans="1:2">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>322</v>
       </c>
@@ -5596,7 +5555,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="416" spans="1:2">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>323</v>
       </c>
@@ -5604,15 +5563,15 @@
         <v>269</v>
       </c>
     </row>
-    <row r="417" spans="1:2">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>265</v>
       </c>
@@ -5620,7 +5579,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="419" spans="1:2">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>94</v>
       </c>
@@ -5628,7 +5587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="420" spans="1:2">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>220</v>
       </c>
@@ -5636,7 +5595,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="421" spans="1:2">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>95</v>
       </c>
@@ -5644,31 +5603,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="422" spans="1:2">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="423" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
+        <v>460</v>
+      </c>
+      <c r="B423" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
         <v>461</v>
       </c>
-      <c r="B423" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="424" spans="1:2">
-      <c r="A424" t="s">
-        <v>462</v>
-      </c>
       <c r="B424" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>96</v>
       </c>
@@ -5676,7 +5635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="426" spans="1:2">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>97</v>
       </c>
@@ -5684,15 +5643,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="427" spans="1:2">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="428" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>98</v>
       </c>
@@ -5700,7 +5659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="429" spans="1:2">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>324</v>
       </c>
@@ -5708,7 +5667,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="430" spans="1:2">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>99</v>
       </c>
@@ -5716,31 +5675,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="431" spans="1:2">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
+        <v>554</v>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
         <v>555</v>
       </c>
-      <c r="B431" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2">
-      <c r="A432" t="s">
+      <c r="B432" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
         <v>556</v>
       </c>
-      <c r="B432" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2">
-      <c r="A433" t="s">
-        <v>557</v>
-      </c>
       <c r="B433" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>325</v>
       </c>
@@ -5748,7 +5707,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="435" spans="1:2">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>326</v>
       </c>
@@ -5756,7 +5715,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="436" spans="1:2">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>100</v>
       </c>
@@ -5764,15 +5723,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="437" spans="1:2">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="438" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>101</v>
       </c>
@@ -5780,15 +5739,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="439" spans="1:2">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="440" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>102</v>
       </c>
@@ -5796,7 +5755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="441" spans="1:2">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>103</v>
       </c>
@@ -5804,15 +5763,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="442" spans="1:2">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>327</v>
       </c>
@@ -5820,15 +5779,15 @@
         <v>269</v>
       </c>
     </row>
-    <row r="444" spans="1:2">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="445" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>266</v>
       </c>
@@ -5836,7 +5795,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="446" spans="1:2">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>221</v>
       </c>
@@ -5844,31 +5803,31 @@
         <v>132</v>
       </c>
     </row>
-    <row r="447" spans="1:2">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
+        <v>464</v>
+      </c>
+      <c r="B447" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>376</v>
+      </c>
+      <c r="B448" s="5" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
         <v>465</v>
       </c>
-      <c r="B447" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="448" spans="1:2">
-      <c r="A448" t="s">
-        <v>377</v>
-      </c>
-      <c r="B448" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2">
-      <c r="A449" t="s">
-        <v>466</v>
-      </c>
       <c r="B449" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="450" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>328</v>
       </c>
@@ -5876,7 +5835,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="451" spans="1:2">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>329</v>
       </c>
@@ -5884,7 +5843,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="452" spans="1:2">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>330</v>
       </c>
@@ -5892,7 +5851,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="453" spans="1:2">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>331</v>
       </c>
@@ -5900,7 +5859,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="454" spans="1:2">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>104</v>
       </c>
@@ -5908,7 +5867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="455" spans="1:2">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>222</v>
       </c>
@@ -5916,15 +5875,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="456" spans="1:2">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="457" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>332</v>
       </c>
@@ -5932,39 +5891,39 @@
         <v>250</v>
       </c>
     </row>
-    <row r="458" spans="1:2">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
+        <v>467</v>
+      </c>
+      <c r="B458" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
         <v>468</v>
       </c>
-      <c r="B458" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="459" spans="1:2">
-      <c r="A459" t="s">
-        <v>469</v>
-      </c>
       <c r="B459" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="460" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>105</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="461" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="462" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>223</v>
       </c>
@@ -5972,7 +5931,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="463" spans="1:2">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>106</v>
       </c>
@@ -5980,7 +5939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="464" spans="1:2">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>333</v>
       </c>
@@ -5988,7 +5947,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="465" spans="1:2">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>224</v>
       </c>
@@ -5996,7 +5955,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="466" spans="1:2">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>107</v>
       </c>
@@ -6004,7 +5963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="467" spans="1:2">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>225</v>
       </c>
@@ -6012,7 +5971,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="468" spans="1:2">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>108</v>
       </c>
@@ -6020,15 +5979,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="469" spans="1:2">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="470" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>334</v>
       </c>
@@ -6036,7 +5995,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="471" spans="1:2">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>335</v>
       </c>
@@ -6044,7 +6003,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="472" spans="1:2">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>336</v>
       </c>
@@ -6052,7 +6011,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="473" spans="1:2">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>226</v>
       </c>
@@ -6060,7 +6019,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="474" spans="1:2">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>337</v>
       </c>
@@ -6068,7 +6027,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="475" spans="1:2">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>267</v>
       </c>
@@ -6076,15 +6035,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="476" spans="1:2">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B476" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="477" spans="1:2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>246</v>
       </c>
@@ -6092,7 +6051,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="478" spans="1:2">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>247</v>
       </c>
@@ -6100,7 +6059,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="479" spans="1:2">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>109</v>
       </c>
@@ -6108,23 +6067,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="480" spans="1:2">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="481" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="482" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>110</v>
       </c>
@@ -6132,7 +6091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="483" spans="1:2">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>111</v>
       </c>
@@ -6140,15 +6099,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="484" spans="1:2">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="485" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>338</v>
       </c>
@@ -6156,23 +6115,23 @@
         <v>269</v>
       </c>
     </row>
-    <row r="486" spans="1:2">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B486" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="487" spans="1:2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="488" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>351</v>
       </c>
@@ -6180,31 +6139,31 @@
         <v>269</v>
       </c>
     </row>
-    <row r="489" spans="1:2">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
+        <v>476</v>
+      </c>
+      <c r="B489" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
         <v>477</v>
       </c>
-      <c r="B489" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="490" spans="1:2">
-      <c r="A490" t="s">
-        <v>478</v>
-      </c>
       <c r="B490" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="491" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="492" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>112</v>
       </c>
@@ -6212,7 +6171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="493" spans="1:2">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>115</v>
       </c>
@@ -6220,7 +6179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="494" spans="1:2">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>245</v>
       </c>
@@ -6228,7 +6187,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="495" spans="1:2">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>244</v>
       </c>
@@ -6236,7 +6195,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="496" spans="1:2">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>227</v>
       </c>
@@ -6244,15 +6203,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="497" spans="1:2">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="498" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>113</v>
       </c>
@@ -6260,7 +6219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="499" spans="1:2">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>114</v>
       </c>
@@ -6268,15 +6227,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="500" spans="1:2">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B500" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="501" spans="1:2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>118</v>
       </c>
@@ -6284,7 +6243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="502" spans="1:2">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>119</v>
       </c>
@@ -6292,23 +6251,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="503" spans="1:2">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
+        <v>470</v>
+      </c>
+      <c r="B503" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
         <v>471</v>
       </c>
-      <c r="B503" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="504" spans="1:2">
-      <c r="A504" t="s">
-        <v>472</v>
-      </c>
       <c r="B504" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="505" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>233</v>
       </c>
@@ -6316,23 +6275,23 @@
         <v>132</v>
       </c>
     </row>
-    <row r="506" spans="1:2">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
+        <v>380</v>
+      </c>
+      <c r="B506" s="5" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
         <v>381</v>
       </c>
-      <c r="B506" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="507" spans="1:2">
-      <c r="A507" t="s">
-        <v>382</v>
-      </c>
       <c r="B507" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="508" spans="1:2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>123</v>
       </c>
@@ -6340,7 +6299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="509" spans="1:2">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>342</v>
       </c>
@@ -6348,15 +6307,15 @@
         <v>269</v>
       </c>
     </row>
-    <row r="510" spans="1:2">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B510" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="511" spans="1:2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>124</v>
       </c>
@@ -6364,7 +6323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="512" spans="1:2">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>234</v>
       </c>
@@ -6372,23 +6331,23 @@
         <v>132</v>
       </c>
     </row>
-    <row r="513" spans="1:2">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="514" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B514" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="515" spans="1:2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>343</v>
       </c>
@@ -6396,7 +6355,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="516" spans="1:2">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>344</v>
       </c>
@@ -6404,7 +6363,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="517" spans="1:2">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>231</v>
       </c>
@@ -6412,7 +6371,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="518" spans="1:2">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>230</v>
       </c>
@@ -6420,7 +6379,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="519" spans="1:2">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>120</v>
       </c>
@@ -6428,7 +6387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="520" spans="1:2">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>121</v>
       </c>
@@ -6436,7 +6395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="521" spans="1:2">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>122</v>
       </c>
@@ -6444,7 +6403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="522" spans="1:2">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>232</v>
       </c>
@@ -6452,7 +6411,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="523" spans="1:2">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>345</v>
       </c>
@@ -6460,7 +6419,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="524" spans="1:2">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>125</v>
       </c>
@@ -6468,7 +6427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="525" spans="1:2">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>235</v>
       </c>
@@ -6476,39 +6435,39 @@
         <v>132</v>
       </c>
     </row>
-    <row r="526" spans="1:2">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B526" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="527" spans="1:2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
+        <v>565</v>
+      </c>
+      <c r="B527" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
         <v>566</v>
       </c>
-      <c r="B527" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="528" spans="1:2">
-      <c r="A528" t="s">
+      <c r="B528" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
         <v>567</v>
       </c>
-      <c r="B528" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="529" spans="1:2">
-      <c r="A529" t="s">
-        <v>568</v>
-      </c>
       <c r="B529" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="530" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>126</v>
       </c>
@@ -6516,7 +6475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="531" spans="1:2">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>127</v>
       </c>
@@ -6524,15 +6483,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="532" spans="1:2">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="533" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>240</v>
       </c>
@@ -6540,15 +6499,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="534" spans="1:2">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="535" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>116</v>
       </c>
@@ -6556,15 +6515,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="536" spans="1:2">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="537" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>228</v>
       </c>
@@ -6572,7 +6531,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="538" spans="1:2">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>239</v>
       </c>
@@ -6580,23 +6539,23 @@
         <v>132</v>
       </c>
     </row>
-    <row r="539" spans="1:2">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="540" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B540" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="541" spans="1:2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>129</v>
       </c>
@@ -6604,7 +6563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="542" spans="1:2">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>238</v>
       </c>
@@ -6612,7 +6571,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="543" spans="1:2">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>348</v>
       </c>
@@ -6620,7 +6579,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="544" spans="1:2">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>347</v>
       </c>
@@ -6628,7 +6587,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="545" spans="1:2">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>339</v>
       </c>
@@ -6636,7 +6595,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="546" spans="1:2">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>128</v>
       </c>
@@ -6644,7 +6603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="547" spans="1:2">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>346</v>
       </c>
@@ -6652,15 +6611,15 @@
         <v>269</v>
       </c>
     </row>
-    <row r="548" spans="1:2">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="549" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>340</v>
       </c>
@@ -6668,7 +6627,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="550" spans="1:2">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>237</v>
       </c>
@@ -6676,7 +6635,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="551" spans="1:2">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>350</v>
       </c>
@@ -6684,7 +6643,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="552" spans="1:2">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>341</v>
       </c>
@@ -6692,7 +6651,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="553" spans="1:2">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>241</v>
       </c>
@@ -6700,23 +6659,23 @@
         <v>132</v>
       </c>
     </row>
-    <row r="554" spans="1:2">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="555" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B555" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="556" spans="1:2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>117</v>
       </c>
@@ -6724,7 +6683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="557" spans="1:2">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>229</v>
       </c>
@@ -6732,7 +6691,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="558" spans="1:2">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>236</v>
       </c>
@@ -6740,7 +6699,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="559" spans="1:2">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>242</v>
       </c>
@@ -6748,7 +6707,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="560" spans="1:2">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>243</v>
       </c>
@@ -6756,7 +6715,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="561" spans="1:2">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>349</v>
       </c>
@@ -6764,7 +6723,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="562" spans="1:2">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>352</v>
       </c>
@@ -6772,15 +6731,15 @@
         <v>269</v>
       </c>
     </row>
-    <row r="563" spans="1:2">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B563" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="564" spans="1:2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>130</v>
       </c>
@@ -6788,7 +6747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="565" spans="1:2">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>248</v>
       </c>
@@ -6796,392 +6755,324 @@
         <v>132</v>
       </c>
     </row>
-    <row r="566" spans="1:2">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
+        <v>572</v>
+      </c>
+      <c r="B566" s="5" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
         <v>573</v>
       </c>
-      <c r="B566" s="6">
-        <v>-1001587382061</v>
-      </c>
-    </row>
-    <row r="567" spans="1:2">
-      <c r="A567" t="s">
+      <c r="B567" s="5" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A568" t="s">
         <v>574</v>
       </c>
-      <c r="B567" s="5" t="s">
+      <c r="B568" s="5" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
+        <v>575</v>
+      </c>
+      <c r="B569" s="5" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>576</v>
+      </c>
+      <c r="B570" s="5" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
+        <v>577</v>
+      </c>
+      <c r="B571" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
+        <v>578</v>
+      </c>
+      <c r="B572" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
+        <v>579</v>
+      </c>
+      <c r="B573" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>580</v>
+      </c>
+      <c r="B574" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
+        <v>581</v>
+      </c>
+      <c r="B575" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A576" t="s">
+        <v>582</v>
+      </c>
+      <c r="B576" s="5" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A577" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="568" spans="1:2">
-      <c r="A568" t="s">
-        <v>575</v>
-      </c>
-      <c r="B568" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="569" spans="1:2">
-      <c r="A569" t="s">
-        <v>576</v>
-      </c>
-      <c r="B569" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="570" spans="1:2">
-      <c r="A570" t="s">
-        <v>577</v>
-      </c>
-      <c r="B570" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="571" spans="1:2">
-      <c r="A571" t="s">
-        <v>578</v>
-      </c>
-      <c r="B571" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="572" spans="1:2">
-      <c r="A572" t="s">
-        <v>579</v>
-      </c>
-      <c r="B572" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="573" spans="1:2">
-      <c r="A573" t="s">
-        <v>580</v>
-      </c>
-      <c r="B573" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="574" spans="1:2">
-      <c r="A574" t="s">
-        <v>581</v>
-      </c>
-      <c r="B574" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="575" spans="1:2">
-      <c r="A575" t="s">
-        <v>582</v>
-      </c>
-      <c r="B575" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="576" spans="1:2">
-      <c r="A576" t="s">
-        <v>583</v>
-      </c>
-      <c r="B576" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="577" spans="1:2">
-      <c r="A577" t="s">
+      <c r="B577" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>588</v>
+      </c>
+      <c r="B578" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
         <v>585</v>
       </c>
-      <c r="B577" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="578" spans="1:2">
-      <c r="A578" t="s">
-        <v>589</v>
-      </c>
-      <c r="B578" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="579" spans="1:2">
-      <c r="A579" t="s">
+      <c r="B579" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
         <v>586</v>
-      </c>
-      <c r="B579" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="580" spans="1:2">
-      <c r="A580" t="s">
-        <v>587</v>
       </c>
       <c r="B580" s="2" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="581" spans="1:2">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="582" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
+        <v>589</v>
+      </c>
+      <c r="B582" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
         <v>590</v>
       </c>
-      <c r="B582" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="583" spans="1:2">
-      <c r="A583" t="s">
+      <c r="B583" s="5" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
         <v>591</v>
       </c>
-      <c r="B583" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="584" spans="1:2">
-      <c r="A584" t="s">
+      <c r="B584" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
         <v>592</v>
       </c>
-      <c r="B584" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="585" spans="1:2">
-      <c r="A585" t="s">
+      <c r="B585" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
         <v>593</v>
       </c>
-      <c r="B585" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="586" spans="1:2">
-      <c r="A586" t="s">
+      <c r="B586" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
         <v>594</v>
       </c>
-      <c r="B586" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="587" spans="1:2">
-      <c r="A587" t="s">
+      <c r="B587" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
         <v>595</v>
       </c>
-      <c r="B587" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="588" spans="1:2">
-      <c r="A588" t="s">
+      <c r="B588" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A589" t="s">
         <v>596</v>
       </c>
-      <c r="B588" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="589" spans="1:2">
-      <c r="A589" t="s">
+      <c r="B589" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
         <v>597</v>
       </c>
-      <c r="B589" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="590" spans="1:2">
-      <c r="A590" t="s">
+      <c r="B590" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A591" t="s">
         <v>598</v>
       </c>
-      <c r="B590" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="591" spans="1:2">
-      <c r="A591" t="s">
+      <c r="B591" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
         <v>599</v>
       </c>
-      <c r="B591" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="592" spans="1:2">
-      <c r="A592" t="s">
+      <c r="B592" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
         <v>600</v>
       </c>
-      <c r="B592" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="593" spans="1:2">
-      <c r="A593" t="s">
+      <c r="B593" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
         <v>601</v>
       </c>
-      <c r="B593" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="594" spans="1:2">
-      <c r="A594" t="s">
+      <c r="B594" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
         <v>602</v>
       </c>
-      <c r="B594" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="595" spans="1:2">
-      <c r="A595" t="s">
+      <c r="B595" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
         <v>603</v>
       </c>
-      <c r="B595" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="596" spans="1:2">
-      <c r="A596" t="s">
+      <c r="B596" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A597" t="s">
         <v>604</v>
       </c>
-      <c r="B596" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="597" spans="1:2">
-      <c r="A597" t="s">
+      <c r="B597" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
         <v>605</v>
       </c>
-      <c r="B597" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="598" spans="1:2">
-      <c r="A598" t="s">
+      <c r="B598" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
         <v>606</v>
       </c>
-      <c r="B598" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="599" spans="1:2">
-      <c r="A599" t="s">
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
         <v>607</v>
       </c>
-      <c r="B599" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="600" spans="1:2">
-      <c r="A600" t="s">
+      <c r="B600" s="5" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
         <v>608</v>
       </c>
-      <c r="B600" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="601" spans="1:2">
-      <c r="A601" t="s">
+      <c r="B601" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
         <v>609</v>
       </c>
-      <c r="B601" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="602" spans="1:2">
-      <c r="A602" t="s">
+      <c r="B602" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
         <v>610</v>
       </c>
-      <c r="B602" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="603" spans="1:2">
-      <c r="A603" t="s">
+      <c r="B603" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>574</v>
+      </c>
+      <c r="B604" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
         <v>611</v>
       </c>
-      <c r="B603" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="604" spans="1:2">
-      <c r="A604" t="s">
-        <v>612</v>
-      </c>
-      <c r="B604" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="605" spans="1:2">
-      <c r="A605" t="s">
-        <v>613</v>
-      </c>
-      <c r="B605" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="606" spans="1:2">
-      <c r="A606" t="s">
-        <v>614</v>
-      </c>
-      <c r="B606" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="607" spans="1:2">
-      <c r="A607" t="s">
-        <v>615</v>
-      </c>
-      <c r="B607" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="608" spans="1:2">
-      <c r="A608" t="s">
-        <v>616</v>
-      </c>
-      <c r="B608" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="609" spans="1:2">
-      <c r="A609" t="s">
-        <v>617</v>
-      </c>
-      <c r="B609" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="610" spans="1:2">
-      <c r="A610" t="s">
-        <v>618</v>
-      </c>
-      <c r="B610" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="611" spans="1:2">
-      <c r="A611" t="s">
-        <v>619</v>
-      </c>
-      <c r="B611" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="612" spans="1:2">
-      <c r="A612" t="s">
-        <v>620</v>
-      </c>
-      <c r="B612" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="613" spans="1:2">
-      <c r="A613" t="s">
-        <v>621</v>
-      </c>
-      <c r="B613" s="2" t="s">
-        <v>3</v>
+      <c r="B605" s="5" t="s">
+        <v>583</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F603"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
